--- a/data/pca/factorExposure/factorExposure_2013-02-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-26.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001579578272149735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002039756382520379</v>
+      </c>
+      <c r="C2">
+        <v>-0.03143663670910996</v>
+      </c>
+      <c r="D2">
+        <v>0.002882859739183625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001807584317998979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006165284659282718</v>
+      </c>
+      <c r="C4">
+        <v>-0.08443152325615923</v>
+      </c>
+      <c r="D4">
+        <v>0.07819616140654632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002603936822403045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01370346101336949</v>
+      </c>
+      <c r="C6">
+        <v>-0.1119884520657193</v>
+      </c>
+      <c r="D6">
+        <v>0.03080432329819492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001395110175568599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.00484080772602544</v>
+      </c>
+      <c r="C7">
+        <v>-0.05677478176093319</v>
+      </c>
+      <c r="D7">
+        <v>0.03326402817567032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003651704203638177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005751967618469789</v>
+      </c>
+      <c r="C8">
+        <v>-0.03945365014881187</v>
+      </c>
+      <c r="D8">
+        <v>0.04268651468506532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003933179881370306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004273246895390427</v>
+      </c>
+      <c r="C9">
+        <v>-0.0707917027891431</v>
+      </c>
+      <c r="D9">
+        <v>0.06918976369434041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004547780221593867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.00543155760591631</v>
+      </c>
+      <c r="C10">
+        <v>-0.05864817017515334</v>
+      </c>
+      <c r="D10">
+        <v>-0.1996307598921038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002605124536872301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005483816908925458</v>
+      </c>
+      <c r="C11">
+        <v>-0.08112035339941027</v>
+      </c>
+      <c r="D11">
+        <v>0.0595764680732043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005307310299640818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004088611363700317</v>
+      </c>
+      <c r="C12">
+        <v>-0.06466324466650361</v>
+      </c>
+      <c r="D12">
+        <v>0.04505538650634858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003408511439543637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008640378614780404</v>
+      </c>
+      <c r="C13">
+        <v>-0.06668059396852953</v>
+      </c>
+      <c r="D13">
+        <v>0.06641596041238536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001189701288099838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001604817934976962</v>
+      </c>
+      <c r="C14">
+        <v>-0.04697194770842716</v>
+      </c>
+      <c r="D14">
+        <v>0.007272849817767381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0008485976351632808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006017164318459629</v>
+      </c>
+      <c r="C15">
+        <v>-0.04342255785434745</v>
+      </c>
+      <c r="D15">
+        <v>0.02970733623008905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.00114014992407803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005046136063608295</v>
+      </c>
+      <c r="C16">
+        <v>-0.06652491104062334</v>
+      </c>
+      <c r="D16">
+        <v>0.04526956248432937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>7.701657901216388e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008790600734058523</v>
+      </c>
+      <c r="C20">
+        <v>-0.06643158790777187</v>
+      </c>
+      <c r="D20">
+        <v>0.04521996729080367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005320401226882675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009746219625897357</v>
+      </c>
+      <c r="C21">
+        <v>-0.02237125248986649</v>
+      </c>
+      <c r="D21">
+        <v>0.03357151883004396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01774629484553142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006846222745345842</v>
+      </c>
+      <c r="C22">
+        <v>-0.09471169763721313</v>
+      </c>
+      <c r="D22">
+        <v>0.09937134179155876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01805767840660096</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006666386802716173</v>
+      </c>
+      <c r="C23">
+        <v>-0.09550081766826626</v>
+      </c>
+      <c r="D23">
+        <v>0.09951270882429367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001808869508966633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005109071191699247</v>
+      </c>
+      <c r="C24">
+        <v>-0.07564769269047517</v>
+      </c>
+      <c r="D24">
+        <v>0.05786510721071473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003802758533360456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002850656828972937</v>
+      </c>
+      <c r="C25">
+        <v>-0.07802376438056718</v>
+      </c>
+      <c r="D25">
+        <v>0.06522227710480312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005590676753398023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003532663464343226</v>
+      </c>
+      <c r="C26">
+        <v>-0.0417296856346523</v>
+      </c>
+      <c r="D26">
+        <v>0.02382534343036363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.003913035406028171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001004901670354114</v>
+      </c>
+      <c r="C28">
+        <v>-0.1065038576711869</v>
+      </c>
+      <c r="D28">
+        <v>-0.3193235145735377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009833863595893231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003075252492779932</v>
+      </c>
+      <c r="C29">
+        <v>-0.04923270485597493</v>
+      </c>
+      <c r="D29">
+        <v>0.002609442799426877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002980815842426425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009043829266070783</v>
+      </c>
+      <c r="C30">
+        <v>-0.1436743597496356</v>
+      </c>
+      <c r="D30">
+        <v>0.1003003161823837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001043231852502167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006171647574708315</v>
+      </c>
+      <c r="C31">
+        <v>-0.04573248383656396</v>
+      </c>
+      <c r="D31">
+        <v>0.03196578858217277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>7.54322471722142e-06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003989326746613685</v>
+      </c>
+      <c r="C32">
+        <v>-0.04257105983516039</v>
+      </c>
+      <c r="D32">
+        <v>0.01830130221659659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003041130361110286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008171576396840399</v>
+      </c>
+      <c r="C33">
+        <v>-0.087405359455253</v>
+      </c>
+      <c r="D33">
+        <v>0.06853598871096196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004205996401025339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003917010494785376</v>
+      </c>
+      <c r="C34">
+        <v>-0.05803842937210345</v>
+      </c>
+      <c r="D34">
+        <v>0.05123093369783726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002213467249150334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004865146629759827</v>
+      </c>
+      <c r="C35">
+        <v>-0.03962707467948225</v>
+      </c>
+      <c r="D35">
+        <v>0.01333339591711577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004083722845014253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001340219800257377</v>
+      </c>
+      <c r="C36">
+        <v>-0.02425456663059553</v>
+      </c>
+      <c r="D36">
+        <v>0.02141744577451905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002469824283164355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009481360317471998</v>
+      </c>
+      <c r="C38">
+        <v>-0.03446260840873482</v>
+      </c>
+      <c r="D38">
+        <v>0.01745598168107409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01202780328278693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0007962281589741857</v>
+      </c>
+      <c r="C39">
+        <v>-0.1174052678241225</v>
+      </c>
+      <c r="D39">
+        <v>0.07165055528448684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008906890522047347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002127781830021777</v>
+      </c>
+      <c r="C40">
+        <v>-0.08773126716308804</v>
+      </c>
+      <c r="D40">
+        <v>0.0154770375482538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002917098503413449</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007256154731108514</v>
+      </c>
+      <c r="C41">
+        <v>-0.03837962322332589</v>
+      </c>
+      <c r="D41">
+        <v>0.03455053742469314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002899649840117961</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003648517821134918</v>
+      </c>
+      <c r="C43">
+        <v>-0.05206923878582208</v>
+      </c>
+      <c r="D43">
+        <v>0.0231045312200496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002796646078874911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003110502133083087</v>
+      </c>
+      <c r="C44">
+        <v>-0.1111927727858739</v>
+      </c>
+      <c r="D44">
+        <v>0.06903820952574767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001426143492875535</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.0022933105106163</v>
+      </c>
+      <c r="C46">
+        <v>-0.03411287566904553</v>
+      </c>
+      <c r="D46">
+        <v>0.03056187249298911</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003675304680959314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002655523002701676</v>
+      </c>
+      <c r="C47">
+        <v>-0.0371140084510013</v>
+      </c>
+      <c r="D47">
+        <v>0.0261494927979731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003695725694295646</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006422885140039859</v>
+      </c>
+      <c r="C48">
+        <v>-0.0293571782916218</v>
+      </c>
+      <c r="D48">
+        <v>0.03044099786419078</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01219897774912526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0149756643072248</v>
+      </c>
+      <c r="C49">
+        <v>-0.183057378822659</v>
+      </c>
+      <c r="D49">
+        <v>0.01306648624511846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006549156689979459</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003555476645153915</v>
+      </c>
+      <c r="C50">
+        <v>-0.0438821625358821</v>
+      </c>
+      <c r="D50">
+        <v>0.0350739680708869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007547587649784481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004428885190090072</v>
+      </c>
+      <c r="C51">
+        <v>-0.02640466281915482</v>
+      </c>
+      <c r="D51">
+        <v>0.02003856323669899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0009541676255949969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02057743728973671</v>
+      </c>
+      <c r="C53">
+        <v>-0.1692426073670176</v>
+      </c>
+      <c r="D53">
+        <v>0.03942840095524562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001636129788529974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008634193329527962</v>
+      </c>
+      <c r="C54">
+        <v>-0.05550516679129092</v>
+      </c>
+      <c r="D54">
+        <v>0.04043999235908718</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003988182391730108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009491617901485049</v>
+      </c>
+      <c r="C55">
+        <v>-0.109971443550826</v>
+      </c>
+      <c r="D55">
+        <v>0.04602623510669275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003226491729976902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01997483984356445</v>
+      </c>
+      <c r="C56">
+        <v>-0.1749606332600825</v>
+      </c>
+      <c r="D56">
+        <v>0.03631924055544038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00712702846828791</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01960714215586766</v>
+      </c>
+      <c r="C58">
+        <v>-0.1127744139871931</v>
+      </c>
+      <c r="D58">
+        <v>0.0462718737079152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006296842154719769</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009415528862780848</v>
+      </c>
+      <c r="C59">
+        <v>-0.1619907781084201</v>
+      </c>
+      <c r="D59">
+        <v>-0.3077810325063259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003408328326538619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.0232230545416653</v>
+      </c>
+      <c r="C60">
+        <v>-0.2204916591935117</v>
+      </c>
+      <c r="D60">
+        <v>0.02716918736984754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01383422003916212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001892441946490981</v>
+      </c>
+      <c r="C61">
+        <v>-0.09549288631538962</v>
+      </c>
+      <c r="D61">
+        <v>0.05647506422111331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1685403744635053</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1445320515379348</v>
+      </c>
+      <c r="C62">
+        <v>-0.09056854854621861</v>
+      </c>
+      <c r="D62">
+        <v>0.05162707659967476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001146631809496434</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006209071834270862</v>
+      </c>
+      <c r="C63">
+        <v>-0.05641766898708492</v>
+      </c>
+      <c r="D63">
+        <v>0.02404813353914462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004627396668665671</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01498615513047005</v>
+      </c>
+      <c r="C64">
+        <v>-0.1045617365859633</v>
+      </c>
+      <c r="D64">
+        <v>0.05954755315824554</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002516941121370354</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01749776863407837</v>
+      </c>
+      <c r="C65">
+        <v>-0.12026459834102</v>
+      </c>
+      <c r="D65">
+        <v>0.01760758126534996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00692464654107193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01278842408622355</v>
+      </c>
+      <c r="C66">
+        <v>-0.1603819869333829</v>
+      </c>
+      <c r="D66">
+        <v>0.111908527656015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003858864093109419</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01561497753662532</v>
+      </c>
+      <c r="C67">
+        <v>-0.06570771946186588</v>
+      </c>
+      <c r="D67">
+        <v>0.02537664652768322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006078700770665742</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0006137638345298452</v>
+      </c>
+      <c r="C68">
+        <v>-0.08706288137400997</v>
+      </c>
+      <c r="D68">
+        <v>-0.2535307243758975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002679635988717322</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006047224335680506</v>
+      </c>
+      <c r="C69">
+        <v>-0.05040201894467313</v>
+      </c>
+      <c r="D69">
+        <v>0.03990727858323029</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>2.895993472057369e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001798438282483439</v>
+      </c>
+      <c r="C70">
+        <v>-0.00245531885371838</v>
+      </c>
+      <c r="D70">
+        <v>0.001145763836572103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>2.325567131438464e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005876886605060275</v>
+      </c>
+      <c r="C71">
+        <v>-0.09730555727682326</v>
+      </c>
+      <c r="D71">
+        <v>-0.3020554466135516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004540043338498668</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01569747036314638</v>
+      </c>
+      <c r="C72">
+        <v>-0.1523883086607485</v>
+      </c>
+      <c r="D72">
+        <v>0.0219067076468715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01159168660730101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02943212001995843</v>
+      </c>
+      <c r="C73">
+        <v>-0.274883251900154</v>
+      </c>
+      <c r="D73">
+        <v>0.04800427488927505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00454034496261529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001707506543036562</v>
+      </c>
+      <c r="C74">
+        <v>-0.1052500065582902</v>
+      </c>
+      <c r="D74">
+        <v>0.03834017908919957</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002203760631581024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01090150587006654</v>
+      </c>
+      <c r="C75">
+        <v>-0.1286785323619701</v>
+      </c>
+      <c r="D75">
+        <v>0.02285893386331796</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009720126576315338</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02172663320016471</v>
+      </c>
+      <c r="C76">
+        <v>-0.1504748214706155</v>
+      </c>
+      <c r="D76">
+        <v>0.06718376048572317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001053817394389215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02342174905946295</v>
+      </c>
+      <c r="C77">
+        <v>-0.129772815064857</v>
+      </c>
+      <c r="D77">
+        <v>0.05091800888715331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009820897036964898</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0144303770978807</v>
+      </c>
+      <c r="C78">
+        <v>-0.09534354339173015</v>
+      </c>
+      <c r="D78">
+        <v>0.0659071240890912</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02396684559628205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03751251725717263</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560976733875271</v>
+      </c>
+      <c r="D79">
+        <v>0.03748109532553488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004491054013238861</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01058209312597954</v>
+      </c>
+      <c r="C80">
+        <v>-0.04327978707922069</v>
+      </c>
+      <c r="D80">
+        <v>0.02868121347344489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00108771242920687</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01505383465038567</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269204780419829</v>
+      </c>
+      <c r="D81">
+        <v>0.04346049396987425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006317676913293132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01991754978537873</v>
+      </c>
+      <c r="C82">
+        <v>-0.1439749347378897</v>
+      </c>
+      <c r="D82">
+        <v>0.04524050057701151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00931730224363065</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009986170157462641</v>
+      </c>
+      <c r="C83">
+        <v>-0.05670240660550102</v>
+      </c>
+      <c r="D83">
+        <v>0.05612601997714457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01371750566834315</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01163029022105403</v>
+      </c>
+      <c r="C84">
+        <v>-0.03650672102222421</v>
+      </c>
+      <c r="D84">
+        <v>-0.007343776416380453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01489566744538678</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02808517832491788</v>
+      </c>
+      <c r="C85">
+        <v>-0.1271697388100092</v>
+      </c>
+      <c r="D85">
+        <v>0.04894585200955005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0005921399930431219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005467813108820506</v>
+      </c>
+      <c r="C86">
+        <v>-0.04998198112600052</v>
+      </c>
+      <c r="D86">
+        <v>0.02187540079194197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004126832447499392</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01022033928722939</v>
+      </c>
+      <c r="C87">
+        <v>-0.1321062551087382</v>
+      </c>
+      <c r="D87">
+        <v>0.06600036598302997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01269409202592567</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002900670357140539</v>
+      </c>
+      <c r="C88">
+        <v>-0.06774919216335963</v>
+      </c>
+      <c r="D88">
+        <v>0.01360403582439618</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01409977923253242</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001631662752650114</v>
+      </c>
+      <c r="C89">
+        <v>-0.1456938528109937</v>
+      </c>
+      <c r="D89">
+        <v>-0.3436714397424408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002126115717778321</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00667310214683348</v>
+      </c>
+      <c r="C90">
+        <v>-0.1219661949885819</v>
+      </c>
+      <c r="D90">
+        <v>-0.3271210593700201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001594489344571016</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01044701232870702</v>
+      </c>
+      <c r="C91">
+        <v>-0.1029848457624776</v>
+      </c>
+      <c r="D91">
+        <v>0.02465026543963757</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.0081429109506119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006108569274379589</v>
+      </c>
+      <c r="C92">
+        <v>-0.1354157707731216</v>
+      </c>
+      <c r="D92">
+        <v>-0.3353717502435021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-9.241137756665683e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004656410297223866</v>
+      </c>
+      <c r="C93">
+        <v>-0.1046677780992914</v>
+      </c>
+      <c r="D93">
+        <v>-0.3111173723196981</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004413444960399465</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02242527423627257</v>
+      </c>
+      <c r="C94">
+        <v>-0.1503794115897679</v>
+      </c>
+      <c r="D94">
+        <v>0.05228260886924475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004971183747059339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0163385950549646</v>
+      </c>
+      <c r="C95">
+        <v>-0.1261836765630681</v>
+      </c>
+      <c r="D95">
+        <v>0.065592009274192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001451777986269467</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03536649279153058</v>
+      </c>
+      <c r="C97">
+        <v>-0.2093452001134164</v>
+      </c>
+      <c r="D97">
+        <v>-0.0076232420480592</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003643979894232966</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03635629555996757</v>
+      </c>
+      <c r="C98">
+        <v>-0.2467489346326545</v>
+      </c>
+      <c r="D98">
+        <v>0.05180882123069316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838421058099112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9824400286928571</v>
+      </c>
+      <c r="C99">
+        <v>0.1141768231163815</v>
+      </c>
+      <c r="D99">
+        <v>-0.02840401630969839</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008894271340950872</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003111012784860327</v>
+      </c>
+      <c r="C101">
+        <v>-0.04941869208191321</v>
+      </c>
+      <c r="D101">
+        <v>0.002683319229067784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
